--- a/sales_figures.xlsx
+++ b/sales_figures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>800</v>
+        <v>1098</v>
       </c>
       <c r="C3" t="n">
-        <v>9234</v>
+        <v>9785</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5425</v>
+        <v>8.911657559198543</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>65432</v>
+        <v>1234</v>
       </c>
       <c r="C4" t="n">
-        <v>12345678765</v>
+        <v>13245</v>
       </c>
       <c r="D4" t="n">
-        <v>188679.5263021152</v>
+        <v>10.73338735818477</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12354</v>
+        <v>700</v>
       </c>
       <c r="C5" t="n">
-        <v>1234</v>
+        <v>993</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0998866763801198</v>
+        <v>1.418571428571429</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23432</v>
+        <v>1256</v>
       </c>
       <c r="C6" t="n">
-        <v>123443</v>
+        <v>10456</v>
       </c>
       <c r="D6" t="n">
-        <v>5.268137589621031</v>
+        <v>8.32484076433121</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6543</v>
+        <v>1256</v>
       </c>
       <c r="C7" t="n">
-        <v>234</v>
+        <v>10000</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03576341127922971</v>
+        <v>7.961783439490445</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>543</v>
+        <v>1234</v>
       </c>
       <c r="C8" t="n">
-        <v>76543</v>
+        <v>12345</v>
       </c>
       <c r="D8" t="n">
-        <v>140.963167587477</v>
+        <v>10.00405186385737</v>
       </c>
     </row>
     <row r="9">
@@ -558,27 +558,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>654</v>
+        <v>1234</v>
       </c>
       <c r="C9" t="n">
-        <v>234567</v>
+        <v>12340</v>
       </c>
       <c r="D9" t="n">
-        <v>358.6651376146789</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9876</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12345678</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1250.06865127582</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
